--- a/projectplan.xlsx
+++ b/projectplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\ba-ben-lakhoune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13776B8-4D9A-475A-81D9-799A6D16B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C3758-7B32-4456-9D88-858CB8E17D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9A20B0-8642-4B7A-80B3-EF38FC4F6C3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Success modeling</t>
   </si>
   <si>
-    <t>Evaluation part 1</t>
-  </si>
-  <si>
-    <t>Evaluation part 2</t>
-  </si>
-  <si>
     <t>Months</t>
   </si>
   <si>
@@ -82,6 +76,15 @@
   </si>
   <si>
     <t>Buffer</t>
+  </si>
+  <si>
+    <t>Evaluation Community Service</t>
+  </si>
+  <si>
+    <t>Evaluation Success Modeling</t>
+  </si>
+  <si>
+    <t>Plan Evaluation</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -193,17 +196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -249,37 +241,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -296,15 +257,9 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -312,25 +267,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,279 +605,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7D15A-7D36-48EE-9E2A-EFB9D57B5D93}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="18" width="5" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="Q3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="17" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="8"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="P3:Q11"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="Q3:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/projectplan.xlsx
+++ b/projectplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\ba-ben-lakhoune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C3758-7B32-4456-9D88-858CB8E17D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95E16B-8FC4-4365-9722-4F194B4F28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9A20B0-8642-4B7A-80B3-EF38FC4F6C3B}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Canteen menu query</t>
   </si>
   <si>
-    <t>Adding Reviews</t>
-  </si>
-  <si>
     <t>Group Chats</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Plan Evaluation</t>
+  </si>
+  <si>
+    <t>Adding Reviews via Chat</t>
   </si>
 </sst>
 </file>
@@ -267,6 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,7 +608,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,55 +620,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="Q3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R3" s="6"/>
     </row>
@@ -710,7 +710,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="17"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="6"/>
     </row>
@@ -725,7 +725,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
@@ -746,7 +746,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -758,7 +758,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -767,7 +767,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -778,8 +778,8 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
+      <c r="A8" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -797,8 +797,8 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>14</v>
+      <c r="A9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -819,7 +819,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -835,12 +835,13 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
+      <c r="A11" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -855,12 +856,13 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="O11" s="6"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>16</v>
+      <c r="A12" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -878,7 +880,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -900,13 +902,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Q3:Q13"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="Q3:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/projectplan.xlsx
+++ b/projectplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\ba-ben-lakhoune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95E16B-8FC4-4365-9722-4F194B4F28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C3F62-6082-47E1-9305-8B8A01C56488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9A20B0-8642-4B7A-80B3-EF38FC4F6C3B}"/>
   </bookViews>
@@ -158,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -176,7 +176,67 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -185,7 +245,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -199,35 +289,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -235,14 +297,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -254,12 +338,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -267,25 +349,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,310 +698,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7D15A-7D36-48EE-9E2A-EFB9D57B5D93}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="16" width="5" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="4"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="Q3" s="18" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="6"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Q3:Q13"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R18:R28"/>
+    <mergeCell ref="C16:R16"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/projectplan.xlsx
+++ b/projectplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\ba-ben-lakhoune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C3F62-6082-47E1-9305-8B8A01C56488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF50E5A-E2B4-4BB7-8467-061B6D8AC6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9A20B0-8642-4B7A-80B3-EF38FC4F6C3B}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7D15A-7D36-48EE-9E2A-EFB9D57B5D93}">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
